--- a/SpMVC_ShopV2/상품정보명세-오라클.xlsx
+++ b/SpMVC_ShopV2/상품정보명세-오라클.xlsx
@@ -3,19 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\Spring2\SpMVC_ShopV1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="8130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="주문정보" sheetId="10" r:id="rId1"/>
-    <sheet name="거래처정보" sheetId="11" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
+    <sheet name="거래처정보" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -308,6 +305,42 @@
   </si>
   <si>
     <t>상품정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제Flag</t>
+  </si>
+  <si>
+    <t>삭제Flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열형</t>
+  </si>
+  <si>
+    <t>P_NOT_USE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'이면 사용하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_NOT_USE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +349,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -579,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,16 +694,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="E5:F11"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1029,7 +1065,7 @@
     <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1690,7 +1726,7 @@
       <c r="K1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
@@ -1703,10 +1739,10 @@
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="13" t="s">
         <v>17</v>
       </c>
@@ -1936,16 +1972,28 @@
       <c r="B12" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
-      <c r="L12" s="20"/>
+      <c r="L12" s="31" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
@@ -2085,10 +2133,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F11"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2099,7 +2227,7 @@
     <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2760,7 +2888,7 @@
       <c r="K1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
@@ -2773,10 +2901,10 @@
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="13" t="s">
         <v>51</v>
       </c>
@@ -3008,11 +3136,21 @@
       <c r="B12" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -3141,12 +3279,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
